--- a/biology/Zoologie/Crisilla_semistriata/Crisilla_semistriata.xlsx
+++ b/biology/Zoologie/Crisilla_semistriata/Crisilla_semistriata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alvania semistriata
 Crisilla semistriata est une espèce de mollusques gastéropodes marins de la famille des Rissoidae. Elle est également connue sous le synonyme de Alvania semistriata.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille, haute de 3 mm et large de 1,5 mm, est constituée de cinq ou six spires légèrement renflées, ornées de fines crêtes longitudinales (disposées dans le sens de l'enroulement) au nombre d'environ 24 sur le dernier tour.
-Le dernier tour occupe à peu près les deux tiers de la hauteur de la coquille[2],[3].
+Le dernier tour occupe à peu près les deux tiers de la hauteur de la coquille,.
 Sa couleur est jaunâtre, sur laquelle tranche, plus ou moins nettement, sur le dernier tour, deux rangées de virgules rouge-brun.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crisilla semistriata vit dans la partie basse des estrans rocheux revêtus d'algues. L'espèce est plus ou moins grégaire et des groupes d'individus peuvent s'observer à la base des touffes d'algues et sous les pierres. Elle affectionne les lieux légèrement envasés et serait détritivore[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crisilla semistriata vit dans la partie basse des estrans rocheux revêtus d'algues. L'espèce est plus ou moins grégaire et des groupes d'individus peuvent s'observer à la base des touffes d'algues et sous les pierres. Elle affectionne les lieux légèrement envasés et serait détritivore.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présente en Méditerranée, notamment sur le littoral nord, de l'Espagne à la Turquie. En Atlantique, l'espèce se trouve du Maroc aux côtes de la Norvège. En mer du Nord elle est signalée en Belgique et aux Pays-Bas[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présente en Méditerranée, notamment sur le littoral nord, de l'Espagne à la Turquie. En Atlantique, l'espèce se trouve du Maroc aux côtes de la Norvège. En mer du Nord elle est signalée en Belgique et aux Pays-Bas
 </t>
         </is>
       </c>
